--- a/Таблица соответствия.xlsx
+++ b/Таблица соответствия.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\metropack\81-717.5_pult\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\GarrysMod\garrysmod\addons\81-717.5_pult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01352031-7E7D-42D7-B0F6-8E7E56DF7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED95D8-D795-4CEC-B2E6-EE1DF52F9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{9CA7CCDB-C000-431A-A56D-2B2C3FA63778}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="№ СИМВОЛА - ЛАМПЫ" sheetId="1" r:id="rId1"/>
+    <sheet name="Соответствие" sheetId="1" r:id="rId1"/>
+    <sheet name="Схема" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t>ОЧ</t>
   </si>
@@ -80,12 +70,6 @@
     <t>РП красная</t>
   </si>
   <si>
-    <t>Двери левые (х2)</t>
-  </si>
-  <si>
-    <t>ЛКВ (вентиляция)</t>
-  </si>
-  <si>
     <t>ЛСП</t>
   </si>
   <si>
@@ -104,32 +88,299 @@
     <t>Пневмотормоз</t>
   </si>
   <si>
-    <t>2 блок</t>
-  </si>
-  <si>
-    <t>5 блок</t>
-  </si>
-  <si>
-    <t>6 блок</t>
-  </si>
-  <si>
-    <t>7 блок</t>
-  </si>
-  <si>
-    <t>Символ</t>
-  </si>
-  <si>
-    <t>Лампа</t>
-  </si>
-  <si>
     <t>Пин</t>
+  </si>
+  <si>
+    <t>Полоса скорости (20 симв.)</t>
+  </si>
+  <si>
+    <t>Двери левые</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Скорость 2х7-сегм.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Что означает</t>
+  </si>
+  <si>
+    <t>Контроль вентиляции</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>UNO</t>
+  </si>
+  <si>
+    <t>74hc595</t>
+  </si>
+  <si>
+    <t>___</t>
+  </si>
+  <si>
+    <t>22-29</t>
+  </si>
+  <si>
+    <t>14-21</t>
+  </si>
+  <si>
+    <t>6-13</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>Полоса-1</t>
+  </si>
+  <si>
+    <t>Полоса-2</t>
+  </si>
+  <si>
+    <t>Полоса-3</t>
+  </si>
+  <si>
+    <t>Индекс в строке состояния</t>
+  </si>
+  <si>
+    <t>7-сегм.-1</t>
+  </si>
+  <si>
+    <t>7-сегм.-2</t>
+  </si>
+  <si>
+    <t>Индекс в строке управления</t>
+  </si>
+  <si>
+    <t>ИНДИКАЦИЯ</t>
+  </si>
+  <si>
+    <t>УПРАВЛЕНИЕ</t>
+  </si>
+  <si>
+    <t>Скорость технически может передаваться трёхзначной. Состояние полосы скорости рассчитывается на стороне Arduino. Вид строки состояния: 690011010101001010101. Первые две цифры - скорость. Остальное - состояния ламп</t>
+  </si>
+  <si>
+    <t>Вкл. МК</t>
+  </si>
+  <si>
+    <t>Вкл. БП</t>
+  </si>
+  <si>
+    <t>КРМК</t>
+  </si>
+  <si>
+    <t>Вкл. АБ (либо АРС 13v)</t>
+  </si>
+  <si>
+    <t>УНЧ</t>
+  </si>
+  <si>
+    <t>ЭС</t>
+  </si>
+  <si>
+    <t>Громкоговоритель</t>
+  </si>
+  <si>
+    <t>Радиоинформатор</t>
+  </si>
+  <si>
+    <t>1 программа</t>
+  </si>
+  <si>
+    <t>2 программа</t>
+  </si>
+  <si>
+    <t>ВУД</t>
+  </si>
+  <si>
+    <t>Вкл. Радио (нету?)</t>
+  </si>
+  <si>
+    <t>КРЗД</t>
+  </si>
+  <si>
+    <t>Возврат РП</t>
+  </si>
+  <si>
+    <t>Сторона дверей</t>
+  </si>
+  <si>
+    <t>Бдительность</t>
+  </si>
+  <si>
+    <t>Бдительность АРС-Р</t>
+  </si>
+  <si>
+    <t>ВЗ №1</t>
+  </si>
+  <si>
+    <t>Вкл. Авар. Вент.</t>
+  </si>
+  <si>
+    <t>Откл. АВУ</t>
+  </si>
+  <si>
+    <t>Откл. БВ</t>
+  </si>
+  <si>
+    <t>Двери торцевые (нету?)</t>
+  </si>
+  <si>
+    <t>Вентиляция кабины (нету?)</t>
+  </si>
+  <si>
+    <t>АРС</t>
+  </si>
+  <si>
+    <t>АЛС</t>
+  </si>
+  <si>
+    <t>АРС-С</t>
+  </si>
+  <si>
+    <t>КСН</t>
+  </si>
+  <si>
+    <t>Звонок</t>
+  </si>
+  <si>
+    <t>ОВТ</t>
+  </si>
+  <si>
+    <t>Дешифратор (нету?)</t>
+  </si>
+  <si>
+    <t>Осв. Салона</t>
+  </si>
+  <si>
+    <t>Осв. Кабины</t>
+  </si>
+  <si>
+    <t>Осв. Пульта</t>
+  </si>
+  <si>
+    <t>ВП (нету?)</t>
+  </si>
+  <si>
+    <t>Пуск резервный</t>
+  </si>
+  <si>
+    <t>КАХ</t>
+  </si>
+  <si>
+    <t>Двери правые</t>
+  </si>
+  <si>
+    <t>Фары</t>
+  </si>
+  <si>
+    <t>ВУС</t>
+  </si>
+  <si>
+    <t>ВАД</t>
+  </si>
+  <si>
+    <t>ВАХ</t>
+  </si>
+  <si>
+    <t>Digital (12)</t>
+  </si>
+  <si>
+    <t>Analog (6)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +389,46 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +443,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -182,29 +489,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,335 +945,989 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD55C19-05EB-490F-8B11-AC12B1D1D107}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showRowColHeaders="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.90625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="K3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2">
+        <v>70</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B10" s="2">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="G17" s="23"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="22"/>
+      <c r="F32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="22"/>
+      <c r="F33" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="22"/>
+      <c r="F34" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="22"/>
+      <c r="F35" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="22"/>
+      <c r="F36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="22"/>
+      <c r="F37" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="22"/>
+      <c r="F38" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="22"/>
+      <c r="F39" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="22"/>
+      <c r="F40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="22"/>
+      <c r="F41" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="22"/>
+      <c r="F42" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="22"/>
+      <c r="F43" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="22"/>
+      <c r="F44" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="22"/>
+      <c r="F45" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:P31"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LТренажёр 81-717.5&amp;RТаблица соответствия</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2DB18-76F5-41CA-A792-7B57E2F88200}">
+  <dimension ref="H5:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+      <c r="I6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>70</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <v>80</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I6:J12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Таблица соответствия.xlsx
+++ b/Таблица соответствия.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\GarrysMod\garrysmod\addons\81-717.5_pult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED95D8-D795-4CEC-B2E6-EE1DF52F9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F36B55D-D743-44F4-B495-A35F15461042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Соответствие" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="136">
   <si>
     <t>ОЧ</t>
   </si>
@@ -374,6 +374,66 @@
   </si>
   <si>
     <t>Analog (6)</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1 гр. вент</t>
+  </si>
+  <si>
+    <t>2 гр. вент</t>
   </si>
 </sst>
 </file>
@@ -555,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,24 +635,48 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -604,33 +688,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" showWhiteSpace="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,26 +1023,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1006,14 +1063,14 @@
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1023,19 +1080,21 @@
         <v>25</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="K3" s="20" t="s">
+      <c r="G3" s="13"/>
+      <c r="K3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -1045,17 +1104,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="G4" s="13"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1065,17 +1126,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="G5" s="14"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1085,17 +1148,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="G6" s="14"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1105,18 +1170,20 @@
         <v>40</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="14"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1126,18 +1193,20 @@
         <v>60</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="14"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1147,18 +1216,20 @@
         <v>70</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="14"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1168,18 +1239,20 @@
         <v>80</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="14"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1189,18 +1262,20 @@
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="14"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1210,17 +1285,19 @@
         <v>2</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="G12" s="14"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1230,17 +1307,19 @@
         <v>13</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="G13" s="14"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1250,17 +1329,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="E14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="G14" s="14"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1270,17 +1351,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="G15" s="14"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1290,17 +1373,19 @@
         <v>5</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="G16" s="14"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1310,17 +1395,19 @@
         <v>6</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="G17" s="14"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1330,17 +1417,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="G18" s="14"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1350,17 +1439,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="G19" s="14"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -1370,340 +1461,417 @@
         <v>9</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="G20" s="14"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="C21" s="3"/>
+      <c r="E21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="14"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="C22" s="3"/>
+      <c r="E22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="14"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24" t="s">
+      <c r="C23" s="8"/>
+      <c r="E23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="16"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="24" t="s">
+      <c r="C24" s="8"/>
+      <c r="E24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="16"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="24" t="s">
+      <c r="C25" s="8"/>
+      <c r="E25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="16"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="24" t="s">
+      <c r="C26" s="8"/>
+      <c r="E26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="G26" s="16"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="24" t="s">
+      <c r="C27" s="8"/>
+      <c r="E27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="G27" s="16"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="24" t="s">
+      <c r="C28" s="8"/>
+      <c r="E28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="G28" s="16"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="24" t="s">
+      <c r="C29" s="8"/>
+      <c r="E29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="G29" s="16"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="24" t="s">
+      <c r="C30" s="8"/>
+      <c r="E30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="G30" s="16"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="24" t="s">
+      <c r="C31" s="8"/>
+      <c r="E31" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="G31" s="16"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="22"/>
-      <c r="F32" s="24" t="s">
+      <c r="A32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="E32" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="22"/>
-      <c r="F33" s="24" t="s">
+      <c r="E33" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="22"/>
-      <c r="F34" s="24" t="s">
+      <c r="E34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="22"/>
-      <c r="F35" s="24" t="s">
+      <c r="E35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="22"/>
-      <c r="F36" s="24" t="s">
+      <c r="E36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="22"/>
-      <c r="F37" s="24" t="s">
+      <c r="E37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="22"/>
-      <c r="F38" s="24" t="s">
+      <c r="E38" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="25"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="22"/>
-      <c r="F39" s="24" t="s">
+      <c r="E39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="22"/>
-      <c r="F40" s="24" t="s">
+      <c r="E40" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="22"/>
-      <c r="F41" s="24" t="s">
+      <c r="E41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="25"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="22"/>
-      <c r="F42" s="24" t="s">
+      <c r="E42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G42" s="25"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="22"/>
-      <c r="F43" s="24" t="s">
+      <c r="E43" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="25"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="22"/>
-      <c r="F44" s="24" t="s">
+      <c r="E44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G44" s="25"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="22"/>
-      <c r="F45" s="24" t="s">
+      <c r="E45" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="25"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1723,7 +1891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F2DB18-76F5-41CA-A792-7B57E2F88200}">
   <dimension ref="H5:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1750,10 +1918,10 @@
     </row>
     <row r="6" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H6" s="5"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1767,8 +1935,8 @@
     </row>
     <row r="7" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H7" s="5"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -1782,8 +1950,8 @@
     </row>
     <row r="8" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H8" s="5"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -1797,68 +1965,68 @@
     </row>
     <row r="9" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H9" s="5"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="R9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H10" s="5"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="10" t="s">
         <v>68</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="10" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="1"/>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="10" t="s">
         <v>64</v>
       </c>
       <c r="S10" s="5"/>
-      <c r="T10" s="17" t="s">
+      <c r="T10" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H11" s="5"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -1872,30 +2040,30 @@
     </row>
     <row r="12" spans="8:20" x14ac:dyDescent="0.25">
       <c r="H12" s="5"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="9" t="s">
         <v>57</v>
       </c>
       <c r="S12" s="1"/>
@@ -1906,19 +2074,19 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="11" t="s">
         <v>62</v>
       </c>
       <c r="M13" s="5"/>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="11" t="s">
         <v>61</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="11" t="s">
         <v>60</v>
       </c>
       <c r="Q13" s="5"/>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="S13" s="1"/>
